--- a/data/trans_orig/P14C34-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C34-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D5E709-AECD-45CA-A3BC-DE5FD70DD107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{311FAE7C-511B-40C4-B67C-DA5B9925AC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF9B74DE-3A45-4E7C-A2B7-DA1FAE4D6043}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F216A465-33E9-487A-AC87-44EC6907FCD8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>61,4%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>—%</t>
@@ -92,7 +92,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>48,09%</t>
+    <t>48,8%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -101,7 +101,7 @@
     <t>19,51%</t>
   </si>
   <si>
-    <t>48,94%</t>
+    <t>56,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -113,22 +113,22 @@
     <t>76,55%</t>
   </si>
   <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>34,69%</t>
+    <t>36,24%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>43,04%</t>
+    <t>33,78%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -137,28 +137,28 @@
     <t>64,17%</t>
   </si>
   <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
   </si>
   <si>
     <t>12,92%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -167,28 +167,28 @@
     <t>42,8%</t>
   </si>
   <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
   </si>
   <si>
     <t>43,8%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -197,55 +197,55 @@
     <t>51,02%</t>
   </si>
   <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
   </si>
   <si>
     <t>56,71%</t>
   </si>
   <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -660,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AB3698-EEAE-4D20-A330-98C563BF0014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289EA049-9089-4416-BEAB-4791B7B294C3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C34-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C34-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{311FAE7C-511B-40C4-B67C-DA5B9925AC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA3BE84B-5111-402D-83D8-CAF0C89422D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F216A465-33E9-487A-AC87-44EC6907FCD8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B06B50EE-4EE5-4B8B-A9F4-1AABA1910436}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="71">
   <si>
-    <t>Población según el tiempo de diagnóstico del trastornos de próstata en 2015 (Tasa respuesta: 1,72%)</t>
+    <t>Población según el tiempo de diagnóstico del trastornos de próstata en 2016 (Tasa respuesta: 1,72%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -74,10 +74,10 @@
     <t>61,4%</t>
   </si>
   <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>—%</t>
@@ -92,7 +92,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>48,8%</t>
+    <t>54,37%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -101,55 +101,55 @@
     <t>19,51%</t>
   </si>
   <si>
-    <t>56,52%</t>
+    <t>49,28%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>76,55%</t>
   </si>
   <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>36,24%</t>
+    <t>35,59%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>64,17%</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
   </si>
   <si>
     <t>12,92%</t>
@@ -158,37 +158,37 @@
     <t>4,13%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>42,8%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
   </si>
   <si>
     <t>43,8%</t>
   </si>
   <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -197,55 +197,55 @@
     <t>51,02%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>56,71%</t>
   </si>
   <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -660,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289EA049-9089-4416-BEAB-4791B7B294C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7A7117-0A6A-4E48-8DBA-45647F02D043}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
